--- a/case1_test.xlsx
+++ b/case1_test.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,11 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -436,205 +440,205 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>小时</t>
+          <t>date</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Tin</t>
+          <t>hist</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>7296</v>
+      <c r="A2" s="2" t="n">
+        <v>44068</v>
       </c>
       <c r="B2" t="n">
-        <v>6.383924961090088</v>
+        <v>481.25</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>7297</v>
+      <c r="A3" s="2" t="n">
+        <v>44068.04166666666</v>
       </c>
       <c r="B3" t="n">
-        <v>5.816902160644531</v>
+        <v>262.75</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>7298</v>
+      <c r="A4" s="2" t="n">
+        <v>44068.08333333334</v>
       </c>
       <c r="B4" t="n">
-        <v>5.303876876831055</v>
+        <v>262.25</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>7299</v>
+      <c r="A5" s="2" t="n">
+        <v>44068.125</v>
       </c>
       <c r="B5" t="n">
-        <v>4.842459201812744</v>
+        <v>271.375</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
-        <v>7300</v>
+      <c r="A6" s="2" t="n">
+        <v>44068.16666666666</v>
       </c>
       <c r="B6" t="n">
-        <v>4.428781509399414</v>
+        <v>275</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
-        <v>7301</v>
+      <c r="A7" s="2" t="n">
+        <v>44068.20833333334</v>
       </c>
       <c r="B7" t="n">
-        <v>4.067298412322998</v>
+        <v>269.25</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
-        <v>7302</v>
+      <c r="A8" s="2" t="n">
+        <v>44068.25</v>
       </c>
       <c r="B8" t="n">
-        <v>3.764640092849731</v>
+        <v>1208.375</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v>7303</v>
+      <c r="A9" s="2" t="n">
+        <v>44068.29166666666</v>
       </c>
       <c r="B9" t="n">
-        <v>3.583698749542236</v>
+        <v>617.5</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
-        <v>7304</v>
+      <c r="A10" s="2" t="n">
+        <v>44068.33333333334</v>
       </c>
       <c r="B10" t="n">
-        <v>3.939953327178955</v>
+        <v>2460</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
-        <v>7305</v>
+      <c r="A11" s="2" t="n">
+        <v>44068.375</v>
       </c>
       <c r="B11" t="n">
-        <v>4.315038204193115</v>
+        <v>3102.25</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
-        <v>7306</v>
+      <c r="A12" s="2" t="n">
+        <v>44068.41666666666</v>
       </c>
       <c r="B12" t="n">
-        <v>4.757885932922363</v>
+        <v>5401.625</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="n">
-        <v>7307</v>
+      <c r="A13" s="2" t="n">
+        <v>44068.45833333334</v>
       </c>
       <c r="B13" t="n">
-        <v>5.234107971191406</v>
+        <v>5650.375</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="n">
-        <v>7308</v>
+      <c r="A14" s="2" t="n">
+        <v>44068.5</v>
       </c>
       <c r="B14" t="n">
-        <v>5.4005126953125</v>
+        <v>5908</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="n">
-        <v>7309</v>
+      <c r="A15" s="2" t="n">
+        <v>44068.54166666666</v>
       </c>
       <c r="B15" t="n">
-        <v>5.85779333114624</v>
+        <v>5907</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="n">
-        <v>7310</v>
+      <c r="A16" s="2" t="n">
+        <v>44068.58333333334</v>
       </c>
       <c r="B16" t="n">
-        <v>6.159505367279053</v>
+        <v>6052</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="n">
-        <v>7311</v>
+      <c r="A17" s="2" t="n">
+        <v>44068.625</v>
       </c>
       <c r="B17" t="n">
-        <v>6.424975395202637</v>
+        <v>6074.75</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="n">
-        <v>7312</v>
+      <c r="A18" s="2" t="n">
+        <v>44068.66666666666</v>
       </c>
       <c r="B18" t="n">
-        <v>6.574465274810791</v>
+        <v>6967.5</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="n">
-        <v>7313</v>
+      <c r="A19" s="2" t="n">
+        <v>44068.70833333334</v>
       </c>
       <c r="B19" t="n">
-        <v>6.310625076293945</v>
+        <v>6293.375</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="n">
-        <v>7314</v>
+      <c r="A20" s="2" t="n">
+        <v>44068.75</v>
       </c>
       <c r="B20" t="n">
-        <v>5.904965877532959</v>
+        <v>6206.875</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="n">
-        <v>7315</v>
+      <c r="A21" s="2" t="n">
+        <v>44068.79166666666</v>
       </c>
       <c r="B21" t="n">
-        <v>5.54883337020874</v>
+        <v>5380</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="n">
-        <v>7316</v>
+      <c r="A22" s="2" t="n">
+        <v>44068.83333333334</v>
       </c>
       <c r="B22" t="n">
-        <v>5.200223922729492</v>
+        <v>4597.5</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="n">
-        <v>7317</v>
+      <c r="A23" s="2" t="n">
+        <v>44068.875</v>
       </c>
       <c r="B23" t="n">
-        <v>4.807692050933838</v>
+        <v>4619.25</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="n">
-        <v>7318</v>
+      <c r="A24" s="2" t="n">
+        <v>44068.91666666666</v>
       </c>
       <c r="B24" t="n">
-        <v>4.426549911499023</v>
+        <v>1652.875</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="n">
-        <v>7319</v>
+      <c r="A25" s="2" t="n">
+        <v>44068.95833333334</v>
       </c>
       <c r="B25" t="n">
-        <v>4.050412654876709</v>
+        <v>705.75</v>
       </c>
     </row>
   </sheetData>
